--- a/sensitivity-analysis-design.xlsx
+++ b/sensitivity-analysis-design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ewout\Documents\GitHub\SEN9120-ABC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221BBC74-7563-43E5-AAD1-7002227FAE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78488DC9-01FD-4437-99CD-51BD7E5C3D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16371" yWindow="0" windowWidth="16629" windowHeight="19937" xr2:uid="{A66AB0D7-C4C6-47C6-B382-DE2766B171F0}"/>
+    <workbookView xWindow="17614" yWindow="2589" windowWidth="12857" windowHeight="11160" xr2:uid="{A66AB0D7-C4C6-47C6-B382-DE2766B171F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,12 +65,6 @@
     <t>mean-preference-utility-tradeoff</t>
   </si>
   <si>
-    <t>preference-panelty-parking-outside-neighbourhood</t>
-  </si>
-  <si>
-    <t>value-of-time</t>
-  </si>
-  <si>
     <t>initial-car-preference</t>
   </si>
   <si>
@@ -78,6 +72,12 @@
   </si>
   <si>
     <t>initial-bike-preference</t>
+  </si>
+  <si>
+    <t>preference-penalty-parking-outside-neighbourhood</t>
+  </si>
+  <si>
+    <t>mean-value-of-time</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -493,17 +493,17 @@
         <v>30</v>
       </c>
       <c r="E2" s="1">
-        <f>C2/$B2-1</f>
+        <f t="shared" ref="E2:E10" si="0">C2/$B2-1</f>
         <v>-0.19999999999999996</v>
       </c>
       <c r="F2" s="1">
-        <f>D2/$B2-1</f>
+        <f t="shared" ref="F2:F10" si="1">D2/$B2-1</f>
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -515,17 +515,17 @@
         <v>0.6</v>
       </c>
       <c r="E3" s="1">
-        <f>C3/$B3-1</f>
+        <f t="shared" si="0"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="F3" s="1">
-        <f>D3/$B3-1</f>
+        <f t="shared" si="1"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>11.25</v>
@@ -539,11 +539,11 @@
         <v>13.5</v>
       </c>
       <c r="E4" s="1">
-        <f>C4/$B4-1</f>
+        <f t="shared" si="0"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="F4" s="1">
-        <f>D4/$B4-1</f>
+        <f t="shared" si="1"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -561,11 +561,11 @@
         <v>0.12</v>
       </c>
       <c r="E5" s="1">
-        <f>C5/$B5-1</f>
+        <f t="shared" si="0"/>
         <v>-0.20000000000000007</v>
       </c>
       <c r="F5" s="1">
-        <f>D5/$B5-1</f>
+        <f t="shared" si="1"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -583,17 +583,17 @@
         <v>0.6</v>
       </c>
       <c r="E6" s="1">
-        <f>C6/$B6-1</f>
+        <f t="shared" si="0"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="F6" s="1">
-        <f>D6/$B6-1</f>
+        <f t="shared" si="1"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0.7</v>
@@ -605,17 +605,17 @@
         <v>0.8</v>
       </c>
       <c r="E7" s="1">
-        <f>C7/$B7-1</f>
+        <f t="shared" si="0"/>
         <v>-0.14285714285714279</v>
       </c>
       <c r="F7" s="1">
-        <f>D7/$B7-1</f>
+        <f t="shared" si="1"/>
         <v>0.14285714285714302</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -627,17 +627,17 @@
         <v>0.6</v>
       </c>
       <c r="E8" s="1">
-        <f>C8/$B8-1</f>
+        <f t="shared" si="0"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="F8" s="1">
-        <f>D8/$B8-1</f>
+        <f t="shared" si="1"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0.5</v>
@@ -649,17 +649,17 @@
         <v>0.6</v>
       </c>
       <c r="E9" s="1">
-        <f>C9/$B9-1</f>
+        <f t="shared" si="0"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="F9" s="1">
-        <f>D9/$B9-1</f>
+        <f t="shared" si="1"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0.3</v>
@@ -671,11 +671,11 @@
         <v>0.4</v>
       </c>
       <c r="E10" s="1">
-        <f>C10/$B10-1</f>
+        <f t="shared" si="0"/>
         <v>-0.33333333333333326</v>
       </c>
       <c r="F10" s="1">
-        <f>D10/$B10-1</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333348</v>
       </c>
     </row>

--- a/sensitivity-analysis-design.xlsx
+++ b/sensitivity-analysis-design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ewout\Documents\GitHub\SEN9120-ABC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78488DC9-01FD-4437-99CD-51BD7E5C3D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB061938-DD80-4037-B51A-B66F8F21B32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17614" yWindow="2589" windowWidth="12857" windowHeight="11160" xr2:uid="{A66AB0D7-C4C6-47C6-B382-DE2766B171F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Variable</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>mean-value-of-time</t>
+  </si>
+  <si>
+    <t>initial-public-transport-preference</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -659,7 +662,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>0.3</v>
